--- a/Assets/06 Data/ExcelData/Gun_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Gun_Item_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\덕코프\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyUnity\Duckov\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BF447D-76D3-44CF-981B-ED1C63EA1914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE9DD66-81F6-4446-AEEB-A6FA7AA921FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{818AEAD1-047B-4735-8CBD-03FE823548AF}"/>
+    <workbookView xWindow="6810" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{818AEAD1-047B-4735-8CBD-03FE823548AF}"/>
   </bookViews>
   <sheets>
     <sheet name="무기" sheetId="1" r:id="rId1"/>
@@ -38,42 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rps</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>magazineCapacity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,10 +82,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>reloadTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>재장전 시간(s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -142,14 +102,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>itemType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adsTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -178,7 +130,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>weightValue</t>
+    <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagazineCapacity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReloadTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdsTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FC45F5-0ACC-4C1F-9F62-F8E7255584F7}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -649,81 +649,81 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>35</v>
@@ -731,43 +731,43 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -775,13 +775,13 @@
         <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>4042</v>
@@ -816,13 +816,13 @@
         <v>780</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>8767</v>
@@ -857,13 +857,13 @@
         <v>254</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>1030</v>

--- a/Assets/06 Data/ExcelData/Gun_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Gun_Item_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyUnity\Duckov\Assets\06 Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\duckov-clone\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE9DD66-81F6-4446-AEEB-A6FA7AA921FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6C1D1D-F908-434C-90DE-73DA4BC098F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{818AEAD1-047B-4735-8CBD-03FE823548AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{818AEAD1-047B-4735-8CBD-03FE823548AF}"/>
   </bookViews>
   <sheets>
     <sheet name="무기" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>가치</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>//번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,6 +175,22 @@
   </si>
   <si>
     <t>WeightValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -635,118 +647,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FC45F5-0ACC-4C1F-9F62-F8E7255584F7}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="15.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -755,10 +785,10 @@
         <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>10</v>
@@ -769,127 +799,139 @@
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="N3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>4042</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1.8</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>8.5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>18.649999999999999</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>30</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>20.6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>0.4</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>780</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>8767</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>22.7</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.67</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>38.9</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>254</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1030</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.65</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>14</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>7</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>13</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>16.5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>0.3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>6</v>
       </c>
     </row>

--- a/Assets/06 Data/ExcelData/Gun_Item_Table.xlsx
+++ b/Assets/06 Data/ExcelData/Gun_Item_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genie\Desktop\duckov-clone\Assets\06 Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6C1D1D-F908-434C-90DE-73DA4BC098F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300D8229-0903-4888-BAE3-D4899B6DD098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{818AEAD1-047B-4735-8CBD-03FE823548AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>가치</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -182,15 +182,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rarity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 소지 스택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxStackSize</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FC45F5-0ACC-4C1F-9F62-F8E7255584F7}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,10 +676,10 @@
     <col min="11" max="11" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -714,13 +722,16 @@
       <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -758,13 +769,16 @@
       <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -802,13 +816,16 @@
       <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="O3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -846,13 +863,16 @@
       <c r="N4" s="1">
         <v>3</v>
       </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>780</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -890,13 +910,16 @@
       <c r="N5" s="1">
         <v>1</v>
       </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>254</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -933,6 +956,9 @@
       </c>
       <c r="N6" s="1">
         <v>6</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
